--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1224.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1224.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.973486020409562</v>
+        <v>1.199161529541016</v>
       </c>
       <c r="B1">
-        <v>3.092189245797543</v>
+        <v>2.014509439468384</v>
       </c>
       <c r="C1">
-        <v>2.562131449920959</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.840935933078228</v>
+        <v>2.036058187484741</v>
       </c>
       <c r="E1">
-        <v>1.165815358107881</v>
+        <v>1.208304166793823</v>
       </c>
     </row>
   </sheetData>
